--- a/biology/Médecine/Terri_Schiavo/Terri_Schiavo.xlsx
+++ b/biology/Médecine/Terri_Schiavo/Terri_Schiavo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Terri Schiavo (née Theresa Marie Schindler le 3 décembre 1963 - 31 mars 2005) est une Américaine, figure emblématique de la polémique sur l'euthanasie. Son cas a fait plusieurs fois la une de la presse aux États-Unis à la suite des poursuites judiciaires entamées par ses parents pour la maintenir en vie malgré l'avis des médecins.
 Elle fut victime d'un arrêt cardiaque prolongé, à la suite d'une hypokaliémie (chute du taux de potassium) due à des vomissements répétés et excessifs (elle était boulimique). Cet arrêt cardiaque a engendré de graves lésions cérébrales irréversibles. En 1991, soit 14 ans avant sa mort, elle était considérée par les médecins comme ayant sombré dans un état végétatif permanent et donc irréversible, bien qu'elle fût capable de certains mouvements et d'expressions du visage. 
